--- a/source/jade/templates/states/jsongen.xlsx
+++ b/source/jade/templates/states/jsongen.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="jsongen" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>iter.ranklist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1149,18 +1152,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:N32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2159,6 +2172,11 @@
         <v>106</v>
       </c>
     </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
